--- a/2th.xlsx
+++ b/2th.xlsx
@@ -32,64 +32,64 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[177, 173, 103, 2, 133, 79], [59, 160, 36, 92, 13, 77, 34], [89, 117, 94, 81, 25, 128, 1]]</t>
+    <t>[[157, 152, 113, 160, 27, 79, 34], [17, 122, 64, 172, 94, 132], [125, 142, 105, 158, 90, 43]]</t>
   </si>
   <si>
-    <t>[[28, 6, 161, 18, 11, 64, 79], [25, 71, 17, 1, 145, 75, 34], [159, 70, 174, 43, 142, 144]]</t>
+    <t>[[167, 105, 41, 28, 70, 79], [139, 17, 16, 22, 100, 128, 34], [164, 27, 97, 134, 162, 51]]</t>
   </si>
   <si>
-    <t>[[78, 148, 3, 6, 32, 18, 25], [82, 12, 8, 36, 80, 52, 79], [93, 113, 44, 27, 149, 95, 34]]</t>
+    <t>[[77, 45, 27, 34, 177, 15], [117, 128, 16, 107, 167, 70, 1], [156, 150, 94, 76, 132, 79]]</t>
   </si>
   <si>
-    <t>[[77, 22, 32, 62, 113, 101], [17, 149, 83, 148, 8, 79, 1, 34], [35, 19, 39, 151, 104, 5, 18]]</t>
+    <t>[[8, 126, 13, 133, 1, 17, 34], [73, 121, 128, 89, 22, 15], [173, 12, 94, 120, 101, 19]]</t>
   </si>
   <si>
-    <t>[[100, 133, 73, 163, 18, 82, 34], [13, 88, 38, 148, 59, 62, 35], [142, 43, 8, 25, 115, 36, 29]]</t>
+    <t>[[95, 142, 110, 148, 73, 28], [25, 34, 170, 164, 163, 150, 79], [15, 17, 100, 13, 87, 16, 29]]</t>
   </si>
   <si>
-    <t>[[87, 113, 118, 34, 148, 89, 40], [142, 43, 79, 162, 149, 73, 17], [94, 18, 25, 71, 139, 6, 41]]</t>
+    <t>[[121, 34, 70, 81, 112, 15, 144], [22, 116, 16, 25, 142, 132, 79], [110, 148, 89, 163, 96, 17]]</t>
   </si>
   <si>
-    <t>[[65, 17, 70, 40, 79, 86, 29], [77, 125, 35, 15, 105, 133, 34], [144, 1, 149, 110, 25, 132, 81]]</t>
+    <t>[[3, 132, 89, 87, 163, 27], [25, 72, 110, 94, 150, 79, 34], [95, 167, 36, 82, 93, 18, 40]]</t>
   </si>
   <si>
-    <t>[[52, 18, 82, 148, 27, 117, 34, 16], [137, 29, 32, 15, 105, 38, 79], [87, 17, 71, 70, 25, 84, 40]]</t>
+    <t>[[132, 77, 79, 70, 93, 88, 34], [25, 161, 167, 94, 16, 5, 38], [107, 82, 101, 73, 90, 113]]</t>
   </si>
   <si>
-    <t>[[90, 1, 139, 93, 25, 79, 15, 34], [120, 12, 55, 100, 40, 148, 27], [35, 101, 117, 6, 162, 149, 17]]</t>
+    <t>[[40, 29, 34, 70, 71, 41, 32], [151, 16, 72, 5, 25, 132, 79], [120, 91, 15, 144, 17, 93, 18]]</t>
   </si>
   <si>
-    <t>[[159, 72, 17, 84, 40, 144, 36], [77, 132, 34, 1, 15, 94, 18, 79], [147, 139, 110, 25, 16, 149, 117]]</t>
+    <t>[[11, 152, 68, 34, 70, 93, 79], [5, 100, 148, 1, 16, 25, 44], [15, 86, 17, 110, 164, 29, 36]]</t>
   </si>
   <si>
-    <t>[[60, 105, 87, 1, 15, 94, 18], [63, 72, 17, 34, 148, 38, 16, 41], [28, 40, 144, 36, 29, 167, 132, 79]]</t>
+    <t>[[40, 29, 167, 145, 89, 79, 25, 34], [147, 82, 16, 41, 71, 1, 15], [60, 38, 19, 36, 144, 162, 44]]</t>
   </si>
   <si>
-    <t>[[25, 132, 64, 41, 16, 34, 82, 79], [145, 35, 15, 167, 148, 27, 19, 40], [116, 68, 70, 36, 29, 161, 17]]</t>
+    <t>[[175, 35, 15, 86, 149, 40, 79], [55, 77, 148, 93, 18, 120, 34], [12, 27, 13, 17, 16, 25, 72]]</t>
   </si>
   <si>
-    <t>[[104, 93, 18, 16, 79, 1, 149, 34], [150, 36, 29, 40, 148, 27, 19, 25], [100, 15, 97, 41, 110, 64, 17]]</t>
+    <t>[[123, 40, 19, 18, 25, 72, 34, 79], [27, 13, 120, 17, 16, 84, 167], [148, 45, 94, 162, 36, 144, 35]]</t>
   </si>
   <si>
-    <t>[[15, 19, 34, 1, 149, 17, 25, 132], [161, 162, 71, 35, 45, 18, 16], [72, 77, 144, 36, 29, 40, 148, 79]]</t>
+    <t>[[149, 35, 29, 34, 18, 40, 113, 79], [162, 36, 82, 16, 5, 25, 148], [132, 167, 91, 15, 144, 17, 70]]</t>
   </si>
   <si>
-    <t>[[104, 93, 18, 79, 133, 36, 29, 34], [91, 27, 1, 149, 110, 64, 15], [44, 25, 16, 40, 148, 116, 17, 35]]</t>
+    <t>[[149, 35, 29, 36, 120, 34, 18, 79], [26, 87, 1, 16, 41, 71, 148], [40, 19, 25, 72, 110, 17, 70]]</t>
   </si>
   <si>
-    <t>[[70, 36, 29, 167, 44, 25, 16, 40], [72, 77, 144, 15, 34, 87, 79, 148], [145, 64, 17, 18, 132, 41, 110]]</t>
+    <t>[[36, 82, 16, 25, 72, 148, 79, 34], [149, 40, 19, 70, 71, 1, 27], [35, 29, 167, 91, 15, 86, 17]]</t>
   </si>
   <si>
-    <t>[[162, 44, 25, 19, 34, 71, 117, 18], [16, 149, 17, 70, 36, 29, 35, 79], [100, 40, 27, 1, 15, 167, 148, 38]]</t>
+    <t>[[144, 162, 148, 93, 18, 15, 86], [110, 17, 16, 1, 25, 72, 79, 34], [150, 94, 40, 29, 36, 82, 41]]</t>
   </si>
   <si>
-    <t>[[133, 36, 29, 35, 41, 110, 17, 34], [93, 18, 16, 148, 79, 1, 149, 117], [7, 15, 167, 44, 25, 19, 40, 27]]</t>
+    <t>[[36, 79, 167, 44, 160, 16, 25, 148], [17, 15, 144, 35, 41, 71, 1, 34], [147, 40, 29, 162, 18, 120, 27]]</t>
   </si>
   <si>
-    <t>[[19, 40, 148, 116, 17, 70, 35, 79], [144, 36, 29, 34, 71, 25, 16, 149], [93, 18, 1, 15, 167, 44, 117, 41]]</t>
+    <t>[[16, 1, 25, 72, 148, 17, 34, 18], [70, 93, 167, 44, 117, 101, 79], [40, 29, 36, 15, 144, 35, 41, 19]]</t>
   </si>
   <si>
-    <t>[[64, 44, 25, 19, 41, 110, 167, 79], [16, 149, 17, 70, 18, 36, 29, 34], [77, 144, 35, 40, 148, 27, 1, 15]]</t>
+    <t>[[35, 41, 71, 79, 18, 40, 29, 36], [16, 1, 15, 144, 162, 148, 17, 34], [132, 64, 44, 117, 19, 25, 72]]</t>
   </si>
 </sst>
 </file>
@@ -162,19 +162,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9376017681209685</v>
+        <v>0.8349389984228208</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>98.48749999999998</v>
+        <v>4.816447368421053</v>
       </c>
       <c r="D2" t="n">
-        <v>4.263000000000001</v>
+        <v>47.800000000000004</v>
       </c>
       <c r="E2" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -182,179 +182,179 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9376017681209685</v>
+        <v>0.832184257495759</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>98.48749999999998</v>
+        <v>4.89342105263158</v>
       </c>
       <c r="D3" t="n">
-        <v>4.263000000000001</v>
+        <v>43.6</v>
       </c>
       <c r="E3" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9374856606686031</v>
+        <v>0.8315988706814939</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>98.53749999999998</v>
+        <v>4.884868421052631</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0250000000000004</v>
+        <v>60.599999999999994</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.9374856606686031</v>
+        <v>0.8228569747429478</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>98.53749999999998</v>
+        <v>5.0171052631578945</v>
       </c>
       <c r="D5" t="n">
-        <v>3.0250000000000004</v>
+        <v>55.65</v>
       </c>
       <c r="E5" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9374856606686031</v>
+        <v>0.8228569747429478</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>98.53749999999998</v>
+        <v>5.0171052631578945</v>
       </c>
       <c r="D6" t="n">
-        <v>3.0250000000000004</v>
+        <v>55.65</v>
       </c>
       <c r="E6" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9374856606686031</v>
+        <v>0.8228569747429478</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>98.53749999999998</v>
+        <v>5.0171052631578945</v>
       </c>
       <c r="D7" t="n">
-        <v>3.0250000000000004</v>
+        <v>55.65</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9214820800789887</v>
+        <v>0.8228569747429478</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>100.1375</v>
+        <v>5.0171052631578945</v>
       </c>
       <c r="D8" t="n">
-        <v>3.419047619047619</v>
+        <v>55.65</v>
       </c>
       <c r="E8" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9214820800789887</v>
+        <v>0.8228569747429478</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1375</v>
+        <v>5.0171052631578945</v>
       </c>
       <c r="D9" t="n">
-        <v>3.419047619047619</v>
+        <v>55.65</v>
       </c>
       <c r="E9" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9179994036479023</v>
+        <v>0.8228569747429478</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>101.625</v>
+        <v>5.0171052631578945</v>
       </c>
       <c r="D10" t="n">
-        <v>3.586190476190476</v>
+        <v>55.65</v>
       </c>
       <c r="E10" t="n">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9179994036479023</v>
+        <v>0.8152004025414296</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>101.625</v>
+        <v>4.904999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>3.586190476190476</v>
+        <v>72.60000000000002</v>
       </c>
       <c r="E11" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -362,19 +362,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9179994036479023</v>
+        <v>0.8152004025414296</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>101.625</v>
+        <v>4.904999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>3.586190476190476</v>
+        <v>72.60000000000002</v>
       </c>
       <c r="E12" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -382,19 +382,19 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9179994036479023</v>
+        <v>0.8152004025414296</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>101.625</v>
+        <v>4.904999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>3.586190476190476</v>
+        <v>72.60000000000002</v>
       </c>
       <c r="E13" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -402,19 +402,19 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9176488128027303</v>
+        <v>0.8152004025414296</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>101.77499999999999</v>
+        <v>4.904999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>3.0214285714285714</v>
+        <v>72.60000000000002</v>
       </c>
       <c r="E14" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -422,19 +422,19 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9176488128027303</v>
+        <v>0.8152004025414296</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>101.77499999999999</v>
+        <v>4.904999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>3.0214285714285714</v>
+        <v>72.60000000000002</v>
       </c>
       <c r="E15" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -442,19 +442,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9138579133255171</v>
+        <v>0.8152004025414296</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>103.39999999999999</v>
+        <v>4.904999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>1.8447619047619048</v>
+        <v>72.60000000000002</v>
       </c>
       <c r="E16" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -462,19 +462,19 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9138579133255171</v>
+        <v>0.8152004025414296</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>103.39999999999999</v>
+        <v>4.904999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>1.8447619047619048</v>
+        <v>72.60000000000002</v>
       </c>
       <c r="E17" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -482,19 +482,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9138579133255171</v>
+        <v>0.8151996196913045</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="n">
-        <v>103.39999999999999</v>
+        <v>4.904999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>1.8447619047619048</v>
+        <v>53.300000000000004</v>
       </c>
       <c r="E18" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -502,19 +502,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9086887781792216</v>
+        <v>0.8151996196913045</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>105.62499999999999</v>
+        <v>4.904999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>3.2509523809523806</v>
+        <v>53.300000000000004</v>
       </c>
       <c r="E19" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -522,19 +522,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9086887781792216</v>
+        <v>0.8127836023104803</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>105.62499999999999</v>
+        <v>4.94375</v>
       </c>
       <c r="D20" t="n">
-        <v>3.2509523809523806</v>
+        <v>59.6</v>
       </c>
       <c r="E20" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -542,19 +542,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8975352064162978</v>
+        <v>0.8077152402769407</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>105.14999999999998</v>
+        <v>5.025625</v>
       </c>
       <c r="D21" t="n">
-        <v>3.0727272727272723</v>
+        <v>47.1</v>
       </c>
       <c r="E21" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -562,19 +562,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8881105049789917</v>
+        <v>0.797668297963685</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>109.175</v>
+        <v>4.9589285714285705</v>
       </c>
       <c r="D22" t="n">
-        <v>2.8954545454545464</v>
+        <v>60.80000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -582,19 +582,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8881105049789917</v>
+        <v>0.797668297963685</v>
       </c>
       <c r="B23" t="s">
         <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>109.175</v>
+        <v>4.9589285714285705</v>
       </c>
       <c r="D23" t="n">
-        <v>2.8954545454545464</v>
+        <v>60.80000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -602,19 +602,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8881105049789917</v>
+        <v>0.797668297963685</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v>109.175</v>
+        <v>4.9589285714285705</v>
       </c>
       <c r="D24" t="n">
-        <v>2.8954545454545464</v>
+        <v>60.80000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -622,19 +622,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8881105049789917</v>
+        <v>0.797668297963685</v>
       </c>
       <c r="B25" t="s">
         <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>109.175</v>
+        <v>4.9589285714285705</v>
       </c>
       <c r="D25" t="n">
-        <v>2.8954545454545464</v>
+        <v>60.80000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -642,179 +642,179 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8845612591588794</v>
+        <v>0.7939659906636245</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>110.70000000000002</v>
+        <v>5.021428571428571</v>
       </c>
       <c r="D26" t="n">
-        <v>2.4063636363636363</v>
+        <v>56.5</v>
       </c>
       <c r="E26" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8845612591588794</v>
+        <v>0.7939659906636245</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>110.70000000000002</v>
+        <v>5.021428571428571</v>
       </c>
       <c r="D27" t="n">
-        <v>2.4063636363636363</v>
+        <v>56.5</v>
       </c>
       <c r="E27" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8845612591588794</v>
+        <v>0.7939659906636245</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>110.70000000000002</v>
+        <v>5.021428571428571</v>
       </c>
       <c r="D28" t="n">
-        <v>2.4063636363636363</v>
+        <v>56.5</v>
       </c>
       <c r="E28" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.872625335844929</v>
+        <v>0.7939659906636245</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>110.57499999999999</v>
+        <v>5.021428571428571</v>
       </c>
       <c r="D29" t="n">
-        <v>2.3604347826086953</v>
+        <v>56.5</v>
       </c>
       <c r="E29" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8658712215084196</v>
+        <v>0.7939659906636245</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>113.44999999999999</v>
+        <v>5.021428571428571</v>
       </c>
       <c r="D30" t="n">
-        <v>2.5573043478260864</v>
+        <v>56.5</v>
       </c>
       <c r="E30" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8658712215084196</v>
+        <v>0.7939659906636245</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>113.44999999999999</v>
+        <v>5.021428571428571</v>
       </c>
       <c r="D31" t="n">
-        <v>2.5573043478260864</v>
+        <v>56.5</v>
       </c>
       <c r="E31" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8658712215084196</v>
+        <v>0.7920206087849194</v>
       </c>
       <c r="B32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>113.44999999999999</v>
+        <v>4.833522727272727</v>
       </c>
       <c r="D32" t="n">
-        <v>2.5573043478260864</v>
+        <v>60.900000000000006</v>
       </c>
       <c r="E32" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8638533447070922</v>
+        <v>0.7920206087849194</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>114.31250000000001</v>
+        <v>4.833522727272727</v>
       </c>
       <c r="D33" t="n">
-        <v>2.1660869565217395</v>
+        <v>60.900000000000006</v>
       </c>
       <c r="E33" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8638533447070922</v>
+        <v>0.7913485449780407</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n">
-        <v>114.31250000000001</v>
+        <v>5.059523809523809</v>
       </c>
       <c r="D34" t="n">
-        <v>2.1660869565217395</v>
+        <v>36.74999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -822,19 +822,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8638533447070922</v>
+        <v>0.7895665544406739</v>
       </c>
       <c r="B35" t="s">
         <v>18</v>
       </c>
       <c r="C35" t="n">
-        <v>114.31250000000001</v>
+        <v>4.867613636363635</v>
       </c>
       <c r="D35" t="n">
-        <v>2.1660869565217395</v>
+        <v>52.467999999999996</v>
       </c>
       <c r="E35" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -842,19 +842,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8638533447070922</v>
+        <v>0.7840536030912323</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>114.31250000000001</v>
+        <v>4.9528409090909085</v>
       </c>
       <c r="D36" t="n">
-        <v>2.1660869565217395</v>
+        <v>60.20000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -862,19 +862,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8638533447070922</v>
+        <v>0.7840536030912323</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" t="n">
-        <v>114.31250000000001</v>
+        <v>4.9528409090909085</v>
       </c>
       <c r="D37" t="n">
-        <v>2.1660869565217395</v>
+        <v>60.20000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -882,19 +882,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8638533447070922</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" t="n">
-        <v>114.31250000000001</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D38" t="n">
-        <v>2.1660869565217395</v>
+        <v>50.718</v>
       </c>
       <c r="E38" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -902,19 +902,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8638533447070922</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C39" t="n">
-        <v>114.31250000000001</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D39" t="n">
-        <v>2.1660869565217395</v>
+        <v>50.718</v>
       </c>
       <c r="E39" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -922,19 +922,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8638533447070922</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C40" t="n">
-        <v>114.31250000000001</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D40" t="n">
-        <v>2.1660869565217395</v>
+        <v>50.718</v>
       </c>
       <c r="E40" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -942,19 +942,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8633567856249527</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C41" t="n">
-        <v>114.525</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D41" t="n">
-        <v>2.305217391304348</v>
+        <v>50.718</v>
       </c>
       <c r="E41" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -962,19 +962,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8633567856249527</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
-        <v>114.525</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D42" t="n">
-        <v>2.305217391304348</v>
+        <v>50.718</v>
       </c>
       <c r="E42" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -982,19 +982,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8633567856249527</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" t="n">
-        <v>114.525</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D43" t="n">
-        <v>2.305217391304348</v>
+        <v>50.718</v>
       </c>
       <c r="E43" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -1002,19 +1002,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8633567856249527</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C44" t="n">
-        <v>114.525</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D44" t="n">
-        <v>2.305217391304348</v>
+        <v>50.718</v>
       </c>
       <c r="E44" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -1022,19 +1022,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8633567856249527</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45" t="n">
-        <v>114.525</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D45" t="n">
-        <v>2.305217391304348</v>
+        <v>50.718</v>
       </c>
       <c r="E45" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1042,19 +1042,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8633567856249527</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" t="n">
-        <v>114.525</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D46" t="n">
-        <v>2.305217391304348</v>
+        <v>50.718</v>
       </c>
       <c r="E46" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -1062,19 +1062,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8633567856249527</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C47" t="n">
-        <v>114.525</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D47" t="n">
-        <v>2.305217391304348</v>
+        <v>50.718</v>
       </c>
       <c r="E47" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -1082,19 +1082,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8633567856249527</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C48" t="n">
-        <v>114.525</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D48" t="n">
-        <v>2.305217391304348</v>
+        <v>50.718</v>
       </c>
       <c r="E48" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1102,19 +1102,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8633567856249527</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>114.525</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D49" t="n">
-        <v>2.305217391304348</v>
+        <v>50.718</v>
       </c>
       <c r="E49" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -1122,19 +1122,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8624519071763153</v>
+        <v>0.7809894597425392</v>
       </c>
       <c r="B50" t="s">
         <v>20</v>
       </c>
       <c r="C50" t="n">
-        <v>114.9125</v>
+        <v>5.000568181818182</v>
       </c>
       <c r="D50" t="n">
-        <v>2.498695652173913</v>
+        <v>50.718</v>
       </c>
       <c r="E50" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -1142,19 +1142,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8624519071763153</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C51" t="n">
-        <v>114.9125</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D51" t="n">
-        <v>2.498695652173913</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E51" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -1162,19 +1162,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8624519071763153</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52" t="n">
-        <v>114.9125</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D52" t="n">
-        <v>2.498695652173913</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E52" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -1182,19 +1182,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8624519071763153</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C53" t="n">
-        <v>114.9125</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D53" t="n">
-        <v>2.498695652173913</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E53" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -1202,19 +1202,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8624519071763153</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54" t="n">
-        <v>114.9125</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D54" t="n">
-        <v>2.498695652173913</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E54" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F54" t="n">
         <v>0.0</v>
@@ -1222,19 +1222,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8622185184952528</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55" t="n">
-        <v>115.01249999999999</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D55" t="n">
-        <v>2.4369565217391305</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E55" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -1242,19 +1242,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8622185184952528</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B56" t="s">
         <v>21</v>
       </c>
       <c r="C56" t="n">
-        <v>115.01249999999999</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D56" t="n">
-        <v>2.4369565217391305</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E56" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -1262,19 +1262,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8622185184952528</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B57" t="s">
         <v>21</v>
       </c>
       <c r="C57" t="n">
-        <v>115.01249999999999</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D57" t="n">
-        <v>2.4369565217391305</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E57" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -1282,19 +1282,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8622185184952528</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="n">
-        <v>115.01249999999999</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D58" t="n">
-        <v>2.4369565217391305</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E58" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -1302,19 +1302,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8486066609284062</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C59" t="n">
-        <v>115.62499999999999</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D59" t="n">
-        <v>2.165</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E59" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -1322,19 +1322,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8486066609284062</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" t="n">
-        <v>115.62499999999999</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D60" t="n">
-        <v>2.165</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E60" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -1342,19 +1342,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8486066609284062</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C61" t="n">
-        <v>115.62499999999999</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D61" t="n">
-        <v>2.165</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E61" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F61" t="n">
         <v>0.0</v>
@@ -1362,19 +1362,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8486066609284062</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" t="n">
-        <v>115.62499999999999</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D62" t="n">
-        <v>2.165</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E62" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -1382,19 +1382,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8486066609284062</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" t="n">
-        <v>115.62499999999999</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D63" t="n">
-        <v>2.165</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E63" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -1402,19 +1402,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C64" t="n">
-        <v>116.17500000000001</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D64" t="n">
-        <v>2.2474166666666666</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E64" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -1422,19 +1422,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7809172088624124</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
-        <v>116.17500000000001</v>
+        <v>5.001704545454545</v>
       </c>
       <c r="D65" t="n">
-        <v>2.2474166666666666</v>
+        <v>63.418000000000006</v>
       </c>
       <c r="E65" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F65" t="n">
         <v>0.0</v>
@@ -1442,19 +1442,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" t="n">
-        <v>116.17500000000001</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D66" t="n">
-        <v>2.2474166666666666</v>
+        <v>47.76</v>
       </c>
       <c r="E66" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F66" t="n">
         <v>0.0</v>
@@ -1462,19 +1462,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" t="n">
-        <v>116.17500000000001</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D67" t="n">
-        <v>2.2474166666666666</v>
+        <v>47.76</v>
       </c>
       <c r="E67" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F67" t="n">
         <v>0.0</v>
@@ -1482,19 +1482,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" t="n">
-        <v>116.17500000000001</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D68" t="n">
-        <v>2.2474166666666666</v>
+        <v>47.76</v>
       </c>
       <c r="E68" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -1502,19 +1502,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" t="n">
-        <v>116.17500000000001</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D69" t="n">
-        <v>2.2474166666666666</v>
+        <v>47.76</v>
       </c>
       <c r="E69" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -1522,19 +1522,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" t="n">
-        <v>116.17500000000001</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D70" t="n">
-        <v>2.2474166666666666</v>
+        <v>47.76</v>
       </c>
       <c r="E70" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -1542,19 +1542,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" t="n">
-        <v>116.17500000000001</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D71" t="n">
-        <v>2.2474166666666666</v>
+        <v>47.76</v>
       </c>
       <c r="E71" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -1562,19 +1562,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72" t="n">
-        <v>116.17500000000001</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D72" t="n">
-        <v>2.2474166666666666</v>
+        <v>47.76</v>
       </c>
       <c r="E72" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -1582,19 +1582,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.8473073380042865</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" t="n">
-        <v>116.17500000000001</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D73" t="n">
-        <v>2.2474166666666666</v>
+        <v>47.76</v>
       </c>
       <c r="E73" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -1602,19 +1602,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C74" t="n">
-        <v>116.6375</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D74" t="n">
-        <v>2.340333333333334</v>
+        <v>47.76</v>
       </c>
       <c r="E74" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -1622,19 +1622,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C75" t="n">
-        <v>116.6375</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D75" t="n">
-        <v>2.340333333333334</v>
+        <v>47.76</v>
       </c>
       <c r="E75" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -1642,19 +1642,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C76" t="n">
-        <v>116.6375</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D76" t="n">
-        <v>2.340333333333334</v>
+        <v>47.76</v>
       </c>
       <c r="E76" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1662,19 +1662,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C77" t="n">
-        <v>116.6375</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D77" t="n">
-        <v>2.340333333333334</v>
+        <v>47.76</v>
       </c>
       <c r="E77" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -1682,19 +1682,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C78" t="n">
-        <v>116.6375</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D78" t="n">
-        <v>2.340333333333334</v>
+        <v>47.76</v>
       </c>
       <c r="E78" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -1702,19 +1702,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C79" t="n">
-        <v>116.6375</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D79" t="n">
-        <v>2.340333333333334</v>
+        <v>47.76</v>
       </c>
       <c r="E79" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -1722,19 +1722,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C80" t="n">
-        <v>116.6375</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D80" t="n">
-        <v>2.340333333333334</v>
+        <v>47.76</v>
       </c>
       <c r="E80" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -1742,19 +1742,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C81" t="n">
-        <v>116.6375</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D81" t="n">
-        <v>2.340333333333334</v>
+        <v>47.76</v>
       </c>
       <c r="E81" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -1762,19 +1762,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7808438947500491</v>
       </c>
       <c r="B82" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C82" t="n">
-        <v>116.6375</v>
+        <v>5.002840909090908</v>
       </c>
       <c r="D82" t="n">
-        <v>2.340333333333334</v>
+        <v>47.76</v>
       </c>
       <c r="E82" t="n">
-        <v>24.0</v>
+        <v>22.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -1782,19 +1782,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C83" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D83" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E83" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -1802,19 +1802,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C84" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D84" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E84" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -1822,19 +1822,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D85" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E85" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -1842,19 +1842,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C86" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D86" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E86" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -1862,19 +1862,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C87" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D87" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E87" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -1882,19 +1882,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B88" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D88" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E88" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -1902,19 +1902,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D89" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E89" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -1922,19 +1922,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C90" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D90" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E90" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -1942,19 +1942,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D91" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E91" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -1962,19 +1962,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D92" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E92" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -1982,19 +1982,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C93" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D93" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E93" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -2002,19 +2002,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C94" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D94" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E94" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -2022,19 +2022,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C95" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D95" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E95" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -2042,19 +2042,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C96" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D96" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E96" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -2062,19 +2062,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D97" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E97" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -2082,19 +2082,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C98" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D98" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E98" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -2102,19 +2102,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C99" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D99" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E99" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -2122,19 +2122,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C100" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D100" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E100" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -2142,19 +2142,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C101" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D101" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E101" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -2162,19 +2162,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C102" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D102" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E102" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -2182,19 +2182,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C103" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D103" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E103" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F103" t="n">
         <v>0.0</v>
@@ -2202,19 +2202,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C104" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D104" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E104" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2222,19 +2222,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C105" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D105" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E105" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -2242,19 +2242,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C106" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D106" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E106" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -2262,19 +2262,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C107" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D107" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E107" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -2282,19 +2282,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B108" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C108" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D108" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E108" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -2302,19 +2302,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C109" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D109" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E109" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -2322,19 +2322,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C110" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D110" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E110" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -2342,19 +2342,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C111" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D111" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E111" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -2362,19 +2362,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C112" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D112" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E112" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -2382,19 +2382,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C113" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D113" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E113" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -2402,19 +2402,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C114" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D114" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E114" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -2422,19 +2422,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C115" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D115" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E115" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -2442,19 +2442,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C116" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D116" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E116" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -2462,19 +2462,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C117" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D117" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E117" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -2482,19 +2482,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C118" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D118" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E118" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2502,19 +2502,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C119" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D119" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E119" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -2522,19 +2522,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C120" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D120" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E120" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -2542,19 +2542,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B121" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C121" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D121" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E121" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -2562,19 +2562,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C122" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D122" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E122" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -2582,19 +2582,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B123" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C123" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D123" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E123" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F123" t="n">
         <v>0.0</v>
@@ -2602,19 +2602,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C124" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D124" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E124" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F124" t="n">
         <v>0.0</v>
@@ -2622,19 +2622,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B125" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C125" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D125" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E125" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
@@ -2642,19 +2642,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B126" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C126" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D126" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E126" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F126" t="n">
         <v>0.0</v>
@@ -2662,19 +2662,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C127" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D127" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E127" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F127" t="n">
         <v>0.0</v>
@@ -2682,19 +2682,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C128" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D128" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E128" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F128" t="n">
         <v>0.0</v>
@@ -2702,19 +2702,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B129" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C129" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D129" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E129" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F129" t="n">
         <v>0.0</v>
@@ -2722,19 +2722,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B130" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C130" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D130" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E130" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F130" t="n">
         <v>0.0</v>
@@ -2742,19 +2742,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B131" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C131" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D131" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E131" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F131" t="n">
         <v>0.0</v>
@@ -2762,19 +2762,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B132" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D132" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E132" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -2782,19 +2782,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B133" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C133" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D133" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E133" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F133" t="n">
         <v>0.0</v>
@@ -2802,19 +2802,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C134" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D134" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E134" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F134" t="n">
         <v>0.0</v>
@@ -2822,19 +2822,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7787379270679274</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C135" t="n">
-        <v>116.6375</v>
+        <v>4.82391304347826</v>
       </c>
       <c r="D135" t="n">
-        <v>2.340333333333334</v>
+        <v>55.2</v>
       </c>
       <c r="E135" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F135" t="n">
         <v>0.0</v>
@@ -2842,199 +2842,199 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7781450928485519</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
       </c>
       <c r="C136" t="n">
-        <v>116.6375</v>
+        <v>4.83641304347826</v>
       </c>
       <c r="D136" t="n">
-        <v>2.340333333333334</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7781450928485519</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
       </c>
       <c r="C137" t="n">
-        <v>116.6375</v>
+        <v>4.83641304347826</v>
       </c>
       <c r="D137" t="n">
-        <v>2.340333333333334</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7781450928485519</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
       </c>
       <c r="C138" t="n">
-        <v>116.6375</v>
+        <v>4.83641304347826</v>
       </c>
       <c r="D138" t="n">
-        <v>2.340333333333334</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7781450928485519</v>
       </c>
       <c r="B139" t="s">
         <v>24</v>
       </c>
       <c r="C139" t="n">
-        <v>116.6375</v>
+        <v>4.83641304347826</v>
       </c>
       <c r="D139" t="n">
-        <v>2.340333333333334</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7781450928485519</v>
       </c>
       <c r="B140" t="s">
         <v>24</v>
       </c>
       <c r="C140" t="n">
-        <v>116.6375</v>
+        <v>4.83641304347826</v>
       </c>
       <c r="D140" t="n">
-        <v>2.340333333333334</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7781450928485519</v>
       </c>
       <c r="B141" t="s">
         <v>24</v>
       </c>
       <c r="C141" t="n">
-        <v>116.6375</v>
+        <v>4.83641304347826</v>
       </c>
       <c r="D141" t="n">
-        <v>2.340333333333334</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7781450928485519</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
       </c>
       <c r="C142" t="n">
-        <v>116.6375</v>
+        <v>4.83641304347826</v>
       </c>
       <c r="D142" t="n">
-        <v>2.340333333333334</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7781450928485519</v>
       </c>
       <c r="B143" t="s">
         <v>24</v>
       </c>
       <c r="C143" t="n">
-        <v>116.6375</v>
+        <v>4.83641304347826</v>
       </c>
       <c r="D143" t="n">
-        <v>2.340333333333334</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E143" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7781450928485519</v>
       </c>
       <c r="B144" t="s">
         <v>24</v>
       </c>
       <c r="C144" t="n">
-        <v>116.6375</v>
+        <v>4.83641304347826</v>
       </c>
       <c r="D144" t="n">
-        <v>2.340333333333334</v>
+        <v>49.04999999999999</v>
       </c>
       <c r="E144" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C145" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D145" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F145" t="n">
         <v>0.0</v>
@@ -3042,19 +3042,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C146" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D146" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E146" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F146" t="n">
         <v>0.0</v>
@@ -3062,19 +3062,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C147" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D147" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E147" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F147" t="n">
         <v>0.0</v>
@@ -3082,19 +3082,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C148" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D148" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E148" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F148" t="n">
         <v>0.0</v>
@@ -3102,19 +3102,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C149" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D149" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E149" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F149" t="n">
         <v>0.0</v>
@@ -3122,19 +3122,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C150" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D150" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E150" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F150" t="n">
         <v>0.0</v>
@@ -3142,19 +3142,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C151" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D151" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F151" t="n">
         <v>0.0</v>
@@ -3162,19 +3162,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C152" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D152" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F152" t="n">
         <v>0.0</v>
@@ -3182,19 +3182,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C153" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D153" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F153" t="n">
         <v>0.0</v>
@@ -3202,19 +3202,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C154" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D154" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F154" t="n">
         <v>0.0</v>
@@ -3222,19 +3222,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C155" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D155" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E155" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F155" t="n">
         <v>0.0</v>
@@ -3242,19 +3242,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C156" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D156" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E156" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F156" t="n">
         <v>0.0</v>
@@ -3262,19 +3262,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C157" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D157" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E157" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
@@ -3282,19 +3282,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C158" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D158" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E158" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F158" t="n">
         <v>0.0</v>
@@ -3302,19 +3302,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C159" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D159" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E159" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F159" t="n">
         <v>0.0</v>
@@ -3322,19 +3322,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C160" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D160" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E160" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F160" t="n">
         <v>0.0</v>
@@ -3342,19 +3342,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C161" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D161" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E161" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F161" t="n">
         <v>0.0</v>
@@ -3362,19 +3362,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C162" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D162" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E162" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F162" t="n">
         <v>0.0</v>
@@ -3382,19 +3382,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C163" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D163" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E163" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F163" t="n">
         <v>0.0</v>
@@ -3402,19 +3402,19 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C164" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D164" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E164" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F164" t="n">
         <v>0.0</v>
@@ -3422,19 +3422,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B165" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C165" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D165" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E165" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F165" t="n">
         <v>0.0</v>
@@ -3442,19 +3442,19 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C166" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D166" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E166" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F166" t="n">
         <v>0.0</v>
@@ -3462,19 +3462,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C167" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D167" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E167" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F167" t="n">
         <v>0.0</v>
@@ -3482,19 +3482,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C168" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D168" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E168" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F168" t="n">
         <v>0.0</v>
@@ -3502,19 +3502,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C169" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D169" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E169" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F169" t="n">
         <v>0.0</v>
@@ -3522,19 +3522,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C170" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D170" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E170" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F170" t="n">
         <v>0.0</v>
@@ -3542,19 +3542,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C171" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D171" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E171" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F171" t="n">
         <v>0.0</v>
@@ -3562,19 +3562,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C172" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D172" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E172" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F172" t="n">
         <v>0.0</v>
@@ -3582,19 +3582,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C173" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D173" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E173" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F173" t="n">
         <v>0.0</v>
@@ -3602,19 +3602,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B174" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C174" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D174" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E174" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F174" t="n">
         <v>0.0</v>
@@ -3622,19 +3622,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B175" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C175" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D175" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E175" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F175" t="n">
         <v>0.0</v>
@@ -3642,19 +3642,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C176" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D176" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F176" t="n">
         <v>0.0</v>
@@ -3662,19 +3662,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B177" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C177" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D177" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F177" t="n">
         <v>0.0</v>
@@ -3682,19 +3682,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B178" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C178" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D178" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E178" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F178" t="n">
         <v>0.0</v>
@@ -3702,19 +3702,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C179" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D179" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E179" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F179" t="n">
         <v>0.0</v>
@@ -3722,19 +3722,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B180" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C180" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D180" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E180" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F180" t="n">
         <v>0.0</v>
@@ -3742,19 +3742,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B181" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C181" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D181" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F181" t="n">
         <v>0.0</v>
@@ -3762,19 +3762,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B182" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C182" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D182" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F182" t="n">
         <v>0.0</v>
@@ -3782,19 +3782,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B183" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C183" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D183" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E183" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F183" t="n">
         <v>0.0</v>
@@ -3802,19 +3802,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B184" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C184" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D184" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E184" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F184" t="n">
         <v>0.0</v>
@@ -3822,19 +3822,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C185" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D185" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E185" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F185" t="n">
         <v>0.0</v>
@@ -3842,19 +3842,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B186" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C186" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D186" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E186" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F186" t="n">
         <v>0.0</v>
@@ -3862,19 +3862,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C187" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D187" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E187" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F187" t="n">
         <v>0.0</v>
@@ -3882,19 +3882,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B188" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C188" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D188" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E188" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F188" t="n">
         <v>0.0</v>
@@ -3902,19 +3902,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B189" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C189" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D189" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E189" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F189" t="n">
         <v>0.0</v>
@@ -3922,19 +3922,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B190" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C190" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D190" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E190" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F190" t="n">
         <v>0.0</v>
@@ -3942,19 +3942,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.8462159479050118</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B191" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C191" t="n">
-        <v>116.6375</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D191" t="n">
-        <v>2.340333333333334</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E191" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F191" t="n">
         <v>0.0</v>
@@ -3962,19 +3962,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B192" t="s">
         <v>25</v>
       </c>
       <c r="C192" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D192" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E192" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F192" t="n">
         <v>0.0</v>
@@ -3982,19 +3982,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B193" t="s">
         <v>25</v>
       </c>
       <c r="C193" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D193" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E193" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F193" t="n">
         <v>0.0</v>
@@ -4002,19 +4002,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B194" t="s">
         <v>25</v>
       </c>
       <c r="C194" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D194" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E194" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F194" t="n">
         <v>0.0</v>
@@ -4022,19 +4022,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B195" t="s">
         <v>25</v>
       </c>
       <c r="C195" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D195" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E195" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F195" t="n">
         <v>0.0</v>
@@ -4042,19 +4042,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B196" t="s">
         <v>25</v>
       </c>
       <c r="C196" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D196" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F196" t="n">
         <v>0.0</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B197" t="s">
         <v>25</v>
       </c>
       <c r="C197" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D197" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E197" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F197" t="n">
         <v>0.0</v>
@@ -4082,19 +4082,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B198" t="s">
         <v>25</v>
       </c>
       <c r="C198" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D198" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F198" t="n">
         <v>0.0</v>
@@ -4102,19 +4102,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B199" t="s">
         <v>25</v>
       </c>
       <c r="C199" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D199" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E199" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F199" t="n">
         <v>0.0</v>
@@ -4122,19 +4122,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B200" t="s">
         <v>25</v>
       </c>
       <c r="C200" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D200" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E200" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F200" t="n">
         <v>0.0</v>
@@ -4142,19 +4142,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B201" t="s">
         <v>25</v>
       </c>
       <c r="C201" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D201" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E201" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F201" t="n">
         <v>0.0</v>
@@ -4162,19 +4162,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B202" t="s">
         <v>25</v>
       </c>
       <c r="C202" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D202" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E202" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F202" t="n">
         <v>0.0</v>
@@ -4182,19 +4182,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B203" t="s">
         <v>25</v>
       </c>
       <c r="C203" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D203" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F203" t="n">
         <v>0.0</v>
@@ -4202,19 +4202,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B204" t="s">
         <v>25</v>
       </c>
       <c r="C204" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D204" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E204" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F204" t="n">
         <v>0.0</v>
@@ -4222,19 +4222,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B205" t="s">
         <v>25</v>
       </c>
       <c r="C205" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D205" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E205" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F205" t="n">
         <v>0.0</v>
@@ -4242,19 +4242,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B206" t="s">
         <v>25</v>
       </c>
       <c r="C206" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D206" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E206" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F206" t="n">
         <v>0.0</v>
@@ -4262,19 +4262,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B207" t="s">
         <v>25</v>
       </c>
       <c r="C207" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D207" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F207" t="n">
         <v>0.0</v>
@@ -4282,19 +4282,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B208" t="s">
         <v>25</v>
       </c>
       <c r="C208" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D208" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F208" t="n">
         <v>0.0</v>
@@ -4302,19 +4302,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B209" t="s">
         <v>25</v>
       </c>
       <c r="C209" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D209" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E209" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F209" t="n">
         <v>0.0</v>
@@ -4322,19 +4322,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B210" t="s">
         <v>25</v>
       </c>
       <c r="C210" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D210" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E210" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F210" t="n">
         <v>0.0</v>
@@ -4342,19 +4342,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B211" t="s">
         <v>25</v>
       </c>
       <c r="C211" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D211" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E211" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F211" t="n">
         <v>0.0</v>
@@ -4362,19 +4362,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B212" t="s">
         <v>25</v>
       </c>
       <c r="C212" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D212" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E212" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F212" t="n">
         <v>0.0</v>
@@ -4382,19 +4382,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B213" t="s">
         <v>25</v>
       </c>
       <c r="C213" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D213" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F213" t="n">
         <v>0.0</v>
@@ -4402,19 +4402,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B214" t="s">
         <v>25</v>
       </c>
       <c r="C214" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D214" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E214" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F214" t="n">
         <v>0.0</v>
@@ -4422,19 +4422,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B215" t="s">
         <v>25</v>
       </c>
       <c r="C215" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D215" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F215" t="n">
         <v>0.0</v>
@@ -4442,19 +4442,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B216" t="s">
         <v>25</v>
       </c>
       <c r="C216" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D216" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E216" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F216" t="n">
         <v>0.0</v>
@@ -4462,19 +4462,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B217" t="s">
         <v>25</v>
       </c>
       <c r="C217" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D217" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E217" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F217" t="n">
         <v>0.0</v>
@@ -4482,19 +4482,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B218" t="s">
         <v>25</v>
       </c>
       <c r="C218" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D218" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E218" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F218" t="n">
         <v>0.0</v>
@@ -4502,19 +4502,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B219" t="s">
         <v>25</v>
       </c>
       <c r="C219" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D219" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E219" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F219" t="n">
         <v>0.0</v>
@@ -4522,19 +4522,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B220" t="s">
         <v>25</v>
       </c>
       <c r="C220" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D220" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E220" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F220" t="n">
         <v>0.0</v>
@@ -4542,19 +4542,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B221" t="s">
         <v>25</v>
       </c>
       <c r="C221" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D221" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E221" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F221" t="n">
         <v>0.0</v>
@@ -4562,19 +4562,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B222" t="s">
         <v>25</v>
       </c>
       <c r="C222" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D222" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E222" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F222" t="n">
         <v>0.0</v>
@@ -4582,19 +4582,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B223" t="s">
         <v>25</v>
       </c>
       <c r="C223" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D223" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E223" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F223" t="n">
         <v>0.0</v>
@@ -4602,19 +4602,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B224" t="s">
         <v>25</v>
       </c>
       <c r="C224" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D224" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E224" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F224" t="n">
         <v>0.0</v>
@@ -4622,19 +4622,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B225" t="s">
         <v>25</v>
       </c>
       <c r="C225" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D225" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E225" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F225" t="n">
         <v>0.0</v>
@@ -4642,19 +4642,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B226" t="s">
         <v>25</v>
       </c>
       <c r="C226" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D226" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E226" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F226" t="n">
         <v>0.0</v>
@@ -4662,19 +4662,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B227" t="s">
         <v>25</v>
       </c>
       <c r="C227" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D227" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E227" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F227" t="n">
         <v>0.0</v>
@@ -4682,19 +4682,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B228" t="s">
         <v>25</v>
       </c>
       <c r="C228" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D228" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F228" t="n">
         <v>0.0</v>
@@ -4702,19 +4702,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B229" t="s">
         <v>25</v>
       </c>
       <c r="C229" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D229" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E229" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F229" t="n">
         <v>0.0</v>
@@ -4722,19 +4722,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B230" t="s">
         <v>25</v>
       </c>
       <c r="C230" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D230" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E230" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F230" t="n">
         <v>0.0</v>
@@ -4742,19 +4742,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B231" t="s">
         <v>25</v>
       </c>
       <c r="C231" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D231" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E231" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F231" t="n">
         <v>0.0</v>
@@ -4762,19 +4762,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B232" t="s">
         <v>25</v>
       </c>
       <c r="C232" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D232" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E232" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F232" t="n">
         <v>0.0</v>
@@ -4782,19 +4782,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B233" t="s">
         <v>25</v>
       </c>
       <c r="C233" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D233" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E233" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F233" t="n">
         <v>0.0</v>
@@ -4802,19 +4802,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B234" t="s">
         <v>25</v>
       </c>
       <c r="C234" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D234" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F234" t="n">
         <v>0.0</v>
@@ -4822,19 +4822,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B235" t="s">
         <v>25</v>
       </c>
       <c r="C235" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D235" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F235" t="n">
         <v>0.0</v>
@@ -4842,19 +4842,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B236" t="s">
         <v>25</v>
       </c>
       <c r="C236" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D236" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E236" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F236" t="n">
         <v>0.0</v>
@@ -4862,19 +4862,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B237" t="s">
         <v>25</v>
       </c>
       <c r="C237" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D237" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E237" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F237" t="n">
         <v>0.0</v>
@@ -4882,19 +4882,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B238" t="s">
         <v>25</v>
       </c>
       <c r="C238" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D238" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E238" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F238" t="n">
         <v>0.0</v>
@@ -4902,19 +4902,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B239" t="s">
         <v>25</v>
       </c>
       <c r="C239" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D239" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E239" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F239" t="n">
         <v>0.0</v>
@@ -4922,19 +4922,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B240" t="s">
         <v>25</v>
       </c>
       <c r="C240" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D240" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E240" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F240" t="n">
         <v>0.0</v>
@@ -4942,19 +4942,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B241" t="s">
         <v>25</v>
       </c>
       <c r="C241" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D241" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E241" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F241" t="n">
         <v>0.0</v>
@@ -4962,19 +4962,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B242" t="s">
         <v>25</v>
       </c>
       <c r="C242" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D242" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E242" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F242" t="n">
         <v>0.0</v>
@@ -4982,19 +4982,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B243" t="s">
         <v>25</v>
       </c>
       <c r="C243" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D243" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E243" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F243" t="n">
         <v>0.0</v>
@@ -5002,19 +5002,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B244" t="s">
         <v>25</v>
       </c>
       <c r="C244" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D244" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E244" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F244" t="n">
         <v>0.0</v>
@@ -5022,19 +5022,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B245" t="s">
         <v>25</v>
       </c>
       <c r="C245" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D245" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E245" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F245" t="n">
         <v>0.0</v>
@@ -5042,19 +5042,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B246" t="s">
         <v>25</v>
       </c>
       <c r="C246" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D246" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E246" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F246" t="n">
         <v>0.0</v>
@@ -5062,19 +5062,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B247" t="s">
         <v>25</v>
       </c>
       <c r="C247" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D247" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E247" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F247" t="n">
         <v>0.0</v>
@@ -5082,19 +5082,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B248" t="s">
         <v>25</v>
       </c>
       <c r="C248" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D248" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E248" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F248" t="n">
         <v>0.0</v>
@@ -5102,19 +5102,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B249" t="s">
         <v>25</v>
       </c>
       <c r="C249" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D249" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E249" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F249" t="n">
         <v>0.0</v>
@@ -5122,19 +5122,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B250" t="s">
         <v>25</v>
       </c>
       <c r="C250" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D250" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E250" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F250" t="n">
         <v>0.0</v>
@@ -5142,19 +5142,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B251" t="s">
         <v>25</v>
       </c>
       <c r="C251" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D251" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E251" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F251" t="n">
         <v>0.0</v>
@@ -5162,19 +5162,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B252" t="s">
         <v>25</v>
       </c>
       <c r="C252" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D252" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F252" t="n">
         <v>0.0</v>
@@ -5182,19 +5182,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B253" t="s">
         <v>25</v>
       </c>
       <c r="C253" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D253" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E253" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F253" t="n">
         <v>0.0</v>
@@ -5202,19 +5202,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B254" t="s">
         <v>25</v>
       </c>
       <c r="C254" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D254" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E254" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F254" t="n">
         <v>0.0</v>
@@ -5222,19 +5222,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B255" t="s">
         <v>25</v>
       </c>
       <c r="C255" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D255" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E255" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F255" t="n">
         <v>0.0</v>
@@ -5242,19 +5242,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B256" t="s">
         <v>25</v>
       </c>
       <c r="C256" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D256" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E256" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F256" t="n">
         <v>0.0</v>
@@ -5262,19 +5262,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B257" t="s">
         <v>25</v>
       </c>
       <c r="C257" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D257" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E257" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F257" t="n">
         <v>0.0</v>
@@ -5282,19 +5282,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B258" t="s">
         <v>25</v>
       </c>
       <c r="C258" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D258" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E258" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F258" t="n">
         <v>0.0</v>
@@ -5302,19 +5302,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B259" t="s">
         <v>25</v>
       </c>
       <c r="C259" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D259" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E259" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F259" t="n">
         <v>0.0</v>
@@ -5322,19 +5322,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B260" t="s">
         <v>25</v>
       </c>
       <c r="C260" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D260" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E260" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F260" t="n">
         <v>0.0</v>
@@ -5342,19 +5342,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B261" t="s">
         <v>25</v>
       </c>
       <c r="C261" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D261" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E261" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F261" t="n">
         <v>0.0</v>
@@ -5362,19 +5362,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B262" t="s">
         <v>25</v>
       </c>
       <c r="C262" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D262" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E262" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F262" t="n">
         <v>0.0</v>
@@ -5382,19 +5382,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B263" t="s">
         <v>25</v>
       </c>
       <c r="C263" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D263" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E263" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F263" t="n">
         <v>0.0</v>
@@ -5402,19 +5402,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B264" t="s">
         <v>25</v>
       </c>
       <c r="C264" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D264" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E264" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F264" t="n">
         <v>0.0</v>
@@ -5422,19 +5422,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B265" t="s">
         <v>25</v>
       </c>
       <c r="C265" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D265" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E265" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F265" t="n">
         <v>0.0</v>
@@ -5442,19 +5442,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B266" t="s">
         <v>25</v>
       </c>
       <c r="C266" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D266" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E266" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F266" t="n">
         <v>0.0</v>
@@ -5462,19 +5462,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B267" t="s">
         <v>25</v>
       </c>
       <c r="C267" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D267" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E267" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F267" t="n">
         <v>0.0</v>
@@ -5482,19 +5482,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B268" t="s">
         <v>25</v>
       </c>
       <c r="C268" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D268" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E268" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F268" t="n">
         <v>0.0</v>
@@ -5502,19 +5502,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B269" t="s">
         <v>25</v>
       </c>
       <c r="C269" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D269" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E269" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F269" t="n">
         <v>0.0</v>
@@ -5522,19 +5522,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B270" t="s">
         <v>25</v>
       </c>
       <c r="C270" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D270" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E270" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F270" t="n">
         <v>0.0</v>
@@ -5542,19 +5542,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B271" t="s">
         <v>25</v>
       </c>
       <c r="C271" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D271" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E271" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F271" t="n">
         <v>0.0</v>
@@ -5562,19 +5562,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B272" t="s">
         <v>25</v>
       </c>
       <c r="C272" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D272" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E272" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F272" t="n">
         <v>0.0</v>
@@ -5582,19 +5582,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B273" t="s">
         <v>25</v>
       </c>
       <c r="C273" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D273" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E273" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F273" t="n">
         <v>0.0</v>
@@ -5602,19 +5602,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B274" t="s">
         <v>25</v>
       </c>
       <c r="C274" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D274" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E274" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F274" t="n">
         <v>0.0</v>
@@ -5622,19 +5622,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B275" t="s">
         <v>25</v>
       </c>
       <c r="C275" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D275" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E275" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F275" t="n">
         <v>0.0</v>
@@ -5642,19 +5642,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B276" t="s">
         <v>25</v>
       </c>
       <c r="C276" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D276" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E276" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F276" t="n">
         <v>0.0</v>
@@ -5662,19 +5662,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B277" t="s">
         <v>25</v>
       </c>
       <c r="C277" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D277" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E277" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F277" t="n">
         <v>0.0</v>
@@ -5682,19 +5682,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B278" t="s">
         <v>25</v>
       </c>
       <c r="C278" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D278" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E278" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F278" t="n">
         <v>0.0</v>
@@ -5702,19 +5702,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B279" t="s">
         <v>25</v>
       </c>
       <c r="C279" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D279" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E279" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F279" t="n">
         <v>0.0</v>
@@ -5722,19 +5722,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B280" t="s">
         <v>25</v>
       </c>
       <c r="C280" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D280" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E280" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F280" t="n">
         <v>0.0</v>
@@ -5742,19 +5742,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B281" t="s">
         <v>25</v>
       </c>
       <c r="C281" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D281" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E281" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F281" t="n">
         <v>0.0</v>
@@ -5762,19 +5762,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B282" t="s">
         <v>25</v>
       </c>
       <c r="C282" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D282" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E282" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F282" t="n">
         <v>0.0</v>
@@ -5782,19 +5782,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B283" t="s">
         <v>25</v>
       </c>
       <c r="C283" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D283" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E283" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F283" t="n">
         <v>0.0</v>
@@ -5802,19 +5802,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B284" t="s">
         <v>25</v>
       </c>
       <c r="C284" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D284" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E284" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F284" t="n">
         <v>0.0</v>
@@ -5822,19 +5822,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B285" t="s">
         <v>25</v>
       </c>
       <c r="C285" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D285" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E285" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F285" t="n">
         <v>0.0</v>
@@ -5842,19 +5842,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B286" t="s">
         <v>25</v>
       </c>
       <c r="C286" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D286" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E286" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F286" t="n">
         <v>0.0</v>
@@ -5862,19 +5862,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B287" t="s">
         <v>25</v>
       </c>
       <c r="C287" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D287" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E287" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F287" t="n">
         <v>0.0</v>
@@ -5882,19 +5882,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B288" t="s">
         <v>25</v>
       </c>
       <c r="C288" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D288" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E288" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F288" t="n">
         <v>0.0</v>
@@ -5902,19 +5902,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B289" t="s">
         <v>25</v>
       </c>
       <c r="C289" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D289" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E289" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F289" t="n">
         <v>0.0</v>
@@ -5922,19 +5922,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B290" t="s">
         <v>25</v>
       </c>
       <c r="C290" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D290" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E290" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F290" t="n">
         <v>0.0</v>
@@ -5942,19 +5942,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B291" t="s">
         <v>25</v>
       </c>
       <c r="C291" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D291" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E291" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F291" t="n">
         <v>0.0</v>
@@ -5962,19 +5962,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B292" t="s">
         <v>25</v>
       </c>
       <c r="C292" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D292" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E292" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F292" t="n">
         <v>0.0</v>
@@ -5982,19 +5982,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B293" t="s">
         <v>25</v>
       </c>
       <c r="C293" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D293" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E293" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F293" t="n">
         <v>0.0</v>
@@ -6002,19 +6002,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B294" t="s">
         <v>25</v>
       </c>
       <c r="C294" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D294" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E294" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F294" t="n">
         <v>0.0</v>
@@ -6022,19 +6022,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B295" t="s">
         <v>25</v>
       </c>
       <c r="C295" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D295" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E295" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F295" t="n">
         <v>0.0</v>
@@ -6042,19 +6042,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B296" t="s">
         <v>25</v>
       </c>
       <c r="C296" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D296" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E296" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F296" t="n">
         <v>0.0</v>
@@ -6062,19 +6062,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B297" t="s">
         <v>25</v>
       </c>
       <c r="C297" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D297" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E297" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F297" t="n">
         <v>0.0</v>
@@ -6082,19 +6082,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B298" t="s">
         <v>25</v>
       </c>
       <c r="C298" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D298" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E298" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F298" t="n">
         <v>0.0</v>
@@ -6102,19 +6102,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B299" t="s">
         <v>25</v>
       </c>
       <c r="C299" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D299" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E299" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F299" t="n">
         <v>0.0</v>
@@ -6122,19 +6122,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B300" t="s">
         <v>25</v>
       </c>
       <c r="C300" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D300" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E300" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F300" t="n">
         <v>0.0</v>
@@ -6142,19 +6142,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.8441542263820607</v>
+        <v>0.7751362904473297</v>
       </c>
       <c r="B301" t="s">
         <v>25</v>
       </c>
       <c r="C301" t="n">
-        <v>117.51249999999997</v>
+        <v>4.878260869565217</v>
       </c>
       <c r="D301" t="n">
-        <v>2.275</v>
+        <v>57.79999999999999</v>
       </c>
       <c r="E301" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F301" t="n">
         <v>0.0</v>
